--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1974.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1974.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.357852117252431</v>
+        <v>0.6283387541770935</v>
       </c>
       <c r="B1">
-        <v>2.79005616474657</v>
+        <v>2.179409027099609</v>
       </c>
       <c r="C1">
-        <v>10.06691642338046</v>
+        <v>8.572210311889648</v>
       </c>
       <c r="D1">
-        <v>1.98913560371236</v>
+        <v>1.998711705207825</v>
       </c>
       <c r="E1">
-        <v>1.03032836814237</v>
+        <v>1.171662211418152</v>
       </c>
     </row>
   </sheetData>
